--- a/src/assets/Ordersheet_2023-Moquadrat.xlsx
+++ b/src/assets/Ordersheet_2023-Moquadrat.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias.bielohlawek/Projects/harfmann/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EEA071-2DFA-5E4C-A631-FC559288140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C868A93-1F01-B142-BBCB-9FC7A52D2C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="5660" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="4800" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ordersheet harfmann" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="90">
   <si>
     <t>Firma</t>
   </si>
@@ -300,6 +310,9 @@
   </si>
   <si>
     <t>145 - moquadrat</t>
+  </si>
+  <si>
+    <t>Versandkosten</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1000,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1517,12 +1530,15 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1532,11 +1548,47 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1549,44 +1601,8 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1968,11 +1984,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4:N4"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2005,26 +2021,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178" t="s">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="188" t="s">
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="188"/>
-      <c r="I1" s="188"/>
-      <c r="J1" s="188"/>
-      <c r="K1" s="188"/>
-      <c r="L1" s="188"/>
-      <c r="M1" s="188"/>
-      <c r="N1" s="188"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
       <c r="Q1" s="48"/>
@@ -2049,44 +2065,44 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="183"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="184"/>
-      <c r="X2" s="184"/>
-      <c r="Y2" s="184"/>
-      <c r="Z2" s="184"/>
-      <c r="AA2" s="184"/>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="184"/>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="184"/>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="184"/>
-      <c r="AJ2" s="184"/>
-      <c r="AK2" s="184"/>
-      <c r="AL2" s="184"/>
-      <c r="AM2" s="184"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="181"/>
+      <c r="AA2" s="181"/>
+      <c r="AB2" s="181"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="181"/>
+      <c r="AG2" s="181"/>
+      <c r="AH2" s="181"/>
+      <c r="AI2" s="181"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="181"/>
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="181"/>
     </row>
     <row r="3" spans="1:39" ht="38.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2094,34 +2110,34 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="175" t="s">
+      <c r="E3" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="184"/>
+      <c r="G3" s="188" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="188"/>
       <c r="Q3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="189" t="s">
+      <c r="S3" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="186"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="186"/>
+      <c r="Y3" s="186"/>
+      <c r="Z3" s="186"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -2140,34 +2156,34 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="174" t="s">
+      <c r="F4" s="177"/>
+      <c r="G4" s="187" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="174"/>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="174"/>
-      <c r="N4" s="174"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
       <c r="Q4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="186">
+      <c r="S4" s="183">
         <v>15224767733</v>
       </c>
-      <c r="T4" s="186"/>
-      <c r="U4" s="186"/>
-      <c r="V4" s="186"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="186"/>
-      <c r="Y4" s="186"/>
-      <c r="Z4" s="186"/>
+      <c r="T4" s="183"/>
+      <c r="U4" s="183"/>
+      <c r="V4" s="183"/>
+      <c r="W4" s="183"/>
+      <c r="X4" s="183"/>
+      <c r="Y4" s="183"/>
+      <c r="Z4" s="183"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -2186,34 +2202,34 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="181" t="s">
+      <c r="E5" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="174" t="s">
+      <c r="F5" s="177"/>
+      <c r="G5" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="174"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="174"/>
-      <c r="K5" s="174"/>
-      <c r="L5" s="174"/>
-      <c r="M5" s="174"/>
-      <c r="N5" s="174"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
       <c r="Q5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="186" t="s">
+      <c r="S5" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="186"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="186"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183"/>
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="183"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -2232,20 +2248,20 @@
       <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="181"/>
-      <c r="G6" s="174" t="s">
+      <c r="F6" s="177"/>
+      <c r="G6" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
-      <c r="L6" s="174"/>
-      <c r="M6" s="174"/>
-      <c r="N6" s="174"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2273,13 +2289,13 @@
       <c r="AM6" s="33"/>
     </row>
     <row r="7" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="179" t="s">
+      <c r="B7" s="175" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="38"/>
       <c r="H7" s="131"/>
       <c r="I7" s="38"/>
@@ -2315,7 +2331,7 @@
       <c r="AM7" s="33"/>
     </row>
     <row r="8" spans="1:39" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="179"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -2355,7 +2371,7 @@
       <c r="AM8" s="35"/>
     </row>
     <row r="9" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="179"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="161"/>
@@ -2397,50 +2413,50 @@
       <c r="AM9" s="36"/>
     </row>
     <row r="10" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="180"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="179"/>
       <c r="H10" s="133"/>
-      <c r="I10" s="177" t="s">
+      <c r="I10" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
+      <c r="J10" s="179"/>
+      <c r="K10" s="179"/>
       <c r="L10" s="133"/>
-      <c r="M10" s="177" t="s">
+      <c r="M10" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
       <c r="P10" s="82"/>
-      <c r="Q10" s="177" t="s">
+      <c r="Q10" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
       <c r="T10" s="133"/>
-      <c r="U10" s="177" t="s">
+      <c r="U10" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
       <c r="X10" s="133"/>
-      <c r="Y10" s="177" t="s">
+      <c r="Y10" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
       <c r="AB10" s="82"/>
-      <c r="AC10" s="177" t="s">
+      <c r="AC10" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="177"/>
-      <c r="AE10" s="177"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="179"/>
       <c r="AF10" s="93"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="103"/>
@@ -2537,7 +2553,7 @@
       <c r="AJ11" s="36"/>
     </row>
     <row r="12" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="189" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2641,7 +2657,7 @@
       <c r="AJ12" s="36"/>
     </row>
     <row r="13" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="172"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="14" t="s">
         <v>25</v>
       </c>
@@ -2755,7 +2771,7 @@
       <c r="AJ13" s="36"/>
     </row>
     <row r="14" spans="1:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="172"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="50" t="s">
         <v>25</v>
       </c>
@@ -2859,7 +2875,7 @@
       <c r="AJ14" s="36"/>
     </row>
     <row r="15" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="169" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -3600,41 +3616,41 @@
       <c r="F25" s="173"/>
       <c r="G25" s="173"/>
       <c r="H25" s="135"/>
-      <c r="I25" s="169" t="s">
+      <c r="I25" s="170" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="170"/>
-      <c r="K25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
       <c r="L25" s="134"/>
-      <c r="M25" s="169" t="s">
+      <c r="M25" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="N25" s="170"/>
-      <c r="O25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="172"/>
       <c r="P25" s="91"/>
-      <c r="Q25" s="169" t="s">
+      <c r="Q25" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="R25" s="170"/>
-      <c r="S25" s="171"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="172"/>
       <c r="T25" s="134"/>
-      <c r="U25" s="169" t="s">
+      <c r="U25" s="170" t="s">
         <v>36</v>
       </c>
-      <c r="V25" s="170"/>
-      <c r="W25" s="171"/>
+      <c r="V25" s="171"/>
+      <c r="W25" s="172"/>
       <c r="X25" s="134"/>
-      <c r="Y25" s="169" t="s">
+      <c r="Y25" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="171"/>
+      <c r="Z25" s="171"/>
+      <c r="AA25" s="172"/>
       <c r="AB25" s="91"/>
-      <c r="AC25" s="169" t="s">
+      <c r="AC25" s="170" t="s">
         <v>37</v>
       </c>
-      <c r="AD25" s="170"/>
-      <c r="AE25" s="171"/>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="172"/>
       <c r="AF25" s="99"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="103"/>
@@ -3731,7 +3747,7 @@
       <c r="AJ26" s="36"/>
     </row>
     <row r="27" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="172" t="s">
+      <c r="B27" s="167" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3804,7 +3820,7 @@
       <c r="AJ27" s="36"/>
     </row>
     <row r="28" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="172"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="14" t="s">
         <v>25</v>
       </c>
@@ -3958,7 +3974,7 @@
       <c r="AJ29" s="36"/>
     </row>
     <row r="30" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="169" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="66" t="s">
@@ -4098,7 +4114,7 @@
       <c r="AJ31" s="36"/>
     </row>
     <row r="32" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="169" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="66" t="s">
@@ -4342,33 +4358,33 @@
       <c r="F37" s="173"/>
       <c r="G37" s="173"/>
       <c r="H37" s="135"/>
-      <c r="I37" s="169" t="s">
+      <c r="I37" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="170"/>
-      <c r="K37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="172"/>
       <c r="L37" s="134"/>
-      <c r="M37" s="169" t="s">
+      <c r="M37" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="N37" s="170"/>
-      <c r="O37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="172"/>
       <c r="P37" s="91"/>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="171"/>
+      <c r="Q37" s="170"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="172"/>
       <c r="T37" s="134"/>
-      <c r="U37" s="169"/>
-      <c r="V37" s="170"/>
-      <c r="W37" s="171"/>
+      <c r="U37" s="170"/>
+      <c r="V37" s="171"/>
+      <c r="W37" s="172"/>
       <c r="X37" s="134"/>
-      <c r="Y37" s="169"/>
-      <c r="Z37" s="170"/>
-      <c r="AA37" s="171"/>
+      <c r="Y37" s="170"/>
+      <c r="Z37" s="171"/>
+      <c r="AA37" s="172"/>
       <c r="AB37" s="91"/>
-      <c r="AC37" s="169"/>
-      <c r="AD37" s="170"/>
-      <c r="AE37" s="171"/>
+      <c r="AC37" s="170"/>
+      <c r="AD37" s="171"/>
+      <c r="AE37" s="172"/>
       <c r="AF37" s="99"/>
       <c r="AG37" s="12"/>
       <c r="AH37" s="103"/>
@@ -4541,7 +4557,7 @@
       <c r="AJ39" s="36"/>
     </row>
     <row r="40" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="167" t="s">
+      <c r="B40" s="169" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="66" t="s">
@@ -4689,7 +4705,7 @@
       <c r="AJ41" s="36"/>
     </row>
     <row r="42" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="167" t="s">
+      <c r="B42" s="169" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -4769,7 +4785,7 @@
       <c r="AJ42" s="36"/>
     </row>
     <row r="43" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="172"/>
+      <c r="B43" s="167"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -4931,7 +4947,7 @@
       <c r="AJ44" s="36"/>
     </row>
     <row r="45" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="167" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -5187,43 +5203,43 @@
       <c r="B50" s="64"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="169" t="s">
+      <c r="E50" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="170"/>
-      <c r="G50" s="171"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="172"/>
       <c r="H50" s="135"/>
-      <c r="I50" s="169" t="s">
+      <c r="I50" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="170"/>
-      <c r="K50" s="171"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="172"/>
       <c r="L50" s="134"/>
-      <c r="M50" s="169" t="s">
+      <c r="M50" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="N50" s="170"/>
-      <c r="O50" s="171"/>
+      <c r="N50" s="171"/>
+      <c r="O50" s="172"/>
       <c r="P50" s="91"/>
-      <c r="Q50" s="169" t="s">
+      <c r="Q50" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="R50" s="170"/>
-      <c r="S50" s="171"/>
+      <c r="R50" s="171"/>
+      <c r="S50" s="172"/>
       <c r="T50" s="134"/>
-      <c r="U50" s="169" t="s">
+      <c r="U50" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="V50" s="170"/>
-      <c r="W50" s="171"/>
+      <c r="V50" s="171"/>
+      <c r="W50" s="172"/>
       <c r="X50" s="134"/>
-      <c r="Y50" s="169"/>
-      <c r="Z50" s="170"/>
-      <c r="AA50" s="171"/>
+      <c r="Y50" s="170"/>
+      <c r="Z50" s="171"/>
+      <c r="AA50" s="172"/>
       <c r="AB50" s="91"/>
-      <c r="AC50" s="169"/>
-      <c r="AD50" s="170"/>
-      <c r="AE50" s="171"/>
+      <c r="AC50" s="170"/>
+      <c r="AD50" s="171"/>
+      <c r="AE50" s="172"/>
       <c r="AF50" s="99"/>
       <c r="AG50" s="12"/>
       <c r="AH50" s="103"/>
@@ -5316,7 +5332,7 @@
       </c>
     </row>
     <row r="52" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="167" t="s">
+      <c r="B52" s="169" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5412,7 +5428,7 @@
       <c r="AJ52" s="36"/>
     </row>
     <row r="53" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="172"/>
+      <c r="B53" s="167"/>
       <c r="C53" s="14" t="s">
         <v>25</v>
       </c>
@@ -5516,7 +5532,7 @@
       <c r="AJ53" s="36"/>
     </row>
     <row r="54" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="172"/>
+      <c r="B54" s="167"/>
       <c r="C54" s="14" t="s">
         <v>25</v>
       </c>
@@ -5614,7 +5630,7 @@
       <c r="AJ54" s="36"/>
     </row>
     <row r="55" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="172"/>
+      <c r="B55" s="167"/>
       <c r="C55" s="14" t="s">
         <v>25</v>
       </c>
@@ -5819,7 +5835,7 @@
       <c r="AM56" s="37"/>
     </row>
     <row r="57" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="167" t="s">
+      <c r="B57" s="169" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="66" t="s">
@@ -6007,7 +6023,7 @@
       <c r="AJ58" s="36"/>
     </row>
     <row r="59" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="172" t="s">
+      <c r="B59" s="167" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="57" t="s">
@@ -6095,7 +6111,7 @@
       </c>
     </row>
     <row r="60" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="172"/>
+      <c r="B60" s="167"/>
       <c r="C60" s="14" t="s">
         <v>80</v>
       </c>
@@ -6287,7 +6303,7 @@
       </c>
     </row>
     <row r="62" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="167" t="s">
+      <c r="B62" s="169" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="66" t="s">
@@ -6375,7 +6391,7 @@
       </c>
     </row>
     <row r="63" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="172"/>
+      <c r="B63" s="167"/>
       <c r="C63" s="14" t="s">
         <v>80</v>
       </c>
@@ -6567,7 +6583,7 @@
       </c>
     </row>
     <row r="65" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="172" t="s">
+      <c r="B65" s="167" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="57" t="s">
@@ -6655,7 +6671,7 @@
       </c>
     </row>
     <row r="66" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="172"/>
+      <c r="B66" s="167"/>
       <c r="C66" s="30" t="s">
         <v>80</v>
       </c>
@@ -6847,7 +6863,7 @@
       </c>
     </row>
     <row r="68" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="167" t="s">
+      <c r="B68" s="169" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -6943,7 +6959,7 @@
       </c>
     </row>
     <row r="69" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="172"/>
+      <c r="B69" s="167"/>
       <c r="C69" s="50" t="s">
         <v>25</v>
       </c>
@@ -7047,7 +7063,7 @@
       </c>
     </row>
     <row r="70" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="167" t="s">
+      <c r="B70" s="169" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="66" t="s">
@@ -7297,34 +7313,117 @@
       </c>
     </row>
     <row r="74" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="190" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="76"/>
+      <c r="F75" s="42">
+        <v>10.49</v>
+      </c>
+      <c r="G75" s="42">
+        <v>10.49</v>
+      </c>
+      <c r="H75" s="115">
+        <f t="shared" ref="H75" si="72">E75*F75</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="76">
+        <v>2</v>
+      </c>
+      <c r="J75" s="42">
+        <v>6.99</v>
+      </c>
+      <c r="K75" s="42">
+        <v>6.99</v>
+      </c>
+      <c r="L75" s="115">
+        <f t="shared" ref="L75" si="73">I75*J75</f>
+        <v>13.98</v>
+      </c>
+      <c r="M75" s="76"/>
+      <c r="N75" s="42">
+        <v>26.99</v>
+      </c>
+      <c r="O75" s="42">
+        <v>26.99</v>
+      </c>
+      <c r="P75" s="42">
+        <f t="shared" ref="P75" si="74">M75*N75</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="115">
+        <f t="shared" ref="T75" si="75">Q75*R75</f>
+        <v>0</v>
+      </c>
+      <c r="U75" s="76"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="115">
+        <f t="shared" ref="X75" si="76">U75*V75</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="16"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="39"/>
+      <c r="AB75" s="42">
+        <f t="shared" ref="AB75" si="77">Y75*Z75</f>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="39"/>
+      <c r="AE75" s="39"/>
+      <c r="AF75" s="42">
+        <f t="shared" ref="AF75" si="78">AC75*AD75</f>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="17">
+        <f t="shared" ref="AG75" si="79">SUM(E75,I75,M75,Q75,U75,Y75,AC75)</f>
+        <v>2</v>
+      </c>
+      <c r="AH75" s="18">
+        <f t="shared" ref="AH75" si="80">SUM(H75,L75,P75,T75,X75,AB75,AF75)</f>
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:36" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH76" s="18">
+        <f>AH73+AH75</f>
+        <v>1898.48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0nqJO02hVEoMxXi2eRaYVfeQhSQfnH8ErZGZrMvMdc5vl2IIvsw5A+0tdQNKhl8sA2RAkMmyN6bSp6GO0nXmgQ==" saltValue="BI9KhyblbcAKKNIwwivtmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="E6:F6"/>
@@ -7341,27 +7440,30 @@
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/assets/Ordersheet_2023-Moquadrat.xlsx
+++ b/src/assets/Ordersheet_2023-Moquadrat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobias.bielohlawek/Projects/harfmann/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C868A93-1F01-B142-BBCB-9FC7A52D2C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCF31D7-E7FA-844F-A2FD-D25C8F1EFF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4320" yWindow="4800" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,9 +320,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$€-2]#,##0.00&quot; &quot;;\([$€-2]#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="0&quot; &quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$€-2]#,##0.00&quot; &quot;;\([$€-2]#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0&quot; &quot;"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -982,7 +982,7 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1010,10 +1010,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1038,10 +1038,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,10 +1053,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,16 +1065,16 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,7 +1090,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1098,25 +1098,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,25 +1137,25 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,13 +1164,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1182,25 +1182,25 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1226,10 +1226,10 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,25 +1250,25 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,10 +1286,10 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1314,7 +1314,7 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1322,7 +1322,7 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1334,77 +1334,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1424,15 +1424,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1450,11 +1450,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1462,14 +1462,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1482,20 +1482,20 @@
     <xf numFmtId="49" fontId="12" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1503,10 +1503,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -1523,34 +1523,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,9 +1582,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1589,20 +1603,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1988,7 +1988,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomLeft" activeCell="U71" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2021,26 +2021,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174" t="s">
+      <c r="B1" s="179"/>
+      <c r="C1" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="185" t="s">
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="189"/>
       <c r="O1" s="48"/>
       <c r="P1" s="48"/>
       <c r="Q1" s="48"/>
@@ -2065,44 +2065,44 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="180"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="181"/>
-      <c r="AG2" s="181"/>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="181"/>
-      <c r="AJ2" s="181"/>
-      <c r="AK2" s="181"/>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="181"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
+      <c r="AC2" s="185"/>
+      <c r="AD2" s="185"/>
+      <c r="AE2" s="185"/>
+      <c r="AF2" s="185"/>
+      <c r="AG2" s="185"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="185"/>
+      <c r="AJ2" s="185"/>
+      <c r="AK2" s="185"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="185"/>
     </row>
     <row r="3" spans="1:39" ht="38.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2110,34 +2110,34 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="184"/>
-      <c r="G3" s="188" t="s">
+      <c r="E3" s="188" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="188"/>
+      <c r="G3" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
-      <c r="M3" s="188"/>
-      <c r="N3" s="188"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
       <c r="Q3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="186" t="s">
+      <c r="S3" s="190" t="s">
         <v>85</v>
       </c>
-      <c r="T3" s="186"/>
-      <c r="U3" s="186"/>
-      <c r="V3" s="186"/>
-      <c r="W3" s="186"/>
-      <c r="X3" s="186"/>
-      <c r="Y3" s="186"/>
-      <c r="Z3" s="186"/>
+      <c r="T3" s="190"/>
+      <c r="U3" s="190"/>
+      <c r="V3" s="190"/>
+      <c r="W3" s="190"/>
+      <c r="X3" s="190"/>
+      <c r="Y3" s="190"/>
+      <c r="Z3" s="190"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -2156,34 +2156,34 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="177" t="s">
+      <c r="E4" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="177"/>
-      <c r="G4" s="187" t="s">
+      <c r="F4" s="182"/>
+      <c r="G4" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-      <c r="L4" s="187"/>
-      <c r="M4" s="187"/>
-      <c r="N4" s="187"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
+      <c r="K4" s="175"/>
+      <c r="L4" s="175"/>
+      <c r="M4" s="175"/>
+      <c r="N4" s="175"/>
       <c r="Q4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="183">
+      <c r="S4" s="187">
         <v>15224767733</v>
       </c>
-      <c r="T4" s="183"/>
-      <c r="U4" s="183"/>
-      <c r="V4" s="183"/>
-      <c r="W4" s="183"/>
-      <c r="X4" s="183"/>
-      <c r="Y4" s="183"/>
-      <c r="Z4" s="183"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="187"/>
+      <c r="X4" s="187"/>
+      <c r="Y4" s="187"/>
+      <c r="Z4" s="187"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -2202,34 +2202,34 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="177" t="s">
+      <c r="E5" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="177"/>
-      <c r="G5" s="187" t="s">
+      <c r="F5" s="182"/>
+      <c r="G5" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="175"/>
       <c r="Q5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="183" t="s">
+      <c r="S5" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="183"/>
-      <c r="U5" s="183"/>
-      <c r="V5" s="183"/>
-      <c r="W5" s="183"/>
-      <c r="X5" s="183"/>
-      <c r="Y5" s="183"/>
-      <c r="Z5" s="183"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="187"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
+      <c r="Y5" s="187"/>
+      <c r="Z5" s="187"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -2248,20 +2248,20 @@
       <c r="B6" s="47"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="177"/>
-      <c r="G6" s="187" t="s">
+      <c r="F6" s="182"/>
+      <c r="G6" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2289,13 +2289,13 @@
       <c r="AM6" s="33"/>
     </row>
     <row r="7" spans="1:39" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="180" t="s">
         <v>81</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
       <c r="G7" s="38"/>
       <c r="H7" s="131"/>
       <c r="I7" s="38"/>
@@ -2331,7 +2331,7 @@
       <c r="AM7" s="33"/>
     </row>
     <row r="8" spans="1:39" ht="40.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="175"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -2371,7 +2371,7 @@
       <c r="AM8" s="35"/>
     </row>
     <row r="9" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="175"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="161"/>
@@ -2413,50 +2413,50 @@
       <c r="AM9" s="36"/>
     </row>
     <row r="10" spans="1:39" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="176"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="179"/>
-      <c r="G10" s="179"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
       <c r="H10" s="133"/>
-      <c r="I10" s="179" t="s">
+      <c r="I10" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="179"/>
-      <c r="K10" s="179"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="178"/>
       <c r="L10" s="133"/>
-      <c r="M10" s="179" t="s">
+      <c r="M10" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
       <c r="P10" s="82"/>
-      <c r="Q10" s="179" t="s">
+      <c r="Q10" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="179"/>
-      <c r="S10" s="179"/>
+      <c r="R10" s="178"/>
+      <c r="S10" s="178"/>
       <c r="T10" s="133"/>
-      <c r="U10" s="179" t="s">
+      <c r="U10" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="V10" s="179"/>
-      <c r="W10" s="179"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
       <c r="X10" s="133"/>
-      <c r="Y10" s="179" t="s">
+      <c r="Y10" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="178"/>
       <c r="AB10" s="82"/>
-      <c r="AC10" s="179" t="s">
+      <c r="AC10" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="AD10" s="179"/>
-      <c r="AE10" s="179"/>
+      <c r="AD10" s="178"/>
+      <c r="AE10" s="178"/>
       <c r="AF10" s="93"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="103"/>
@@ -2553,7 +2553,7 @@
       <c r="AJ11" s="36"/>
     </row>
     <row r="12" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="177" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="14" t="s">
@@ -2657,7 +2657,7 @@
       <c r="AJ12" s="36"/>
     </row>
     <row r="13" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="167"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="14" t="s">
         <v>25</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="AJ13" s="36"/>
     </row>
     <row r="14" spans="1:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="167"/>
+      <c r="B14" s="173"/>
       <c r="C14" s="50" t="s">
         <v>25</v>
       </c>
@@ -2875,7 +2875,7 @@
       <c r="AJ14" s="36"/>
     </row>
     <row r="15" spans="1:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="168" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2965,7 +2965,7 @@
       <c r="AJ15" s="36"/>
     </row>
     <row r="16" spans="1:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="168"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="50" t="s">
         <v>25</v>
       </c>
@@ -3610,11 +3610,11 @@
       <c r="B25" s="64"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="173" t="s">
+      <c r="E25" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
       <c r="H25" s="135"/>
       <c r="I25" s="170" t="s">
         <v>38</v>
@@ -3747,7 +3747,7 @@
       <c r="AJ26" s="36"/>
     </row>
     <row r="27" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="173" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -3820,7 +3820,7 @@
       <c r="AJ27" s="36"/>
     </row>
     <row r="28" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="167"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="14" t="s">
         <v>25</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="AJ28" s="36"/>
     </row>
     <row r="29" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="168"/>
+      <c r="B29" s="169"/>
       <c r="C29" s="14" t="s">
         <v>25</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="AJ29" s="36"/>
     </row>
     <row r="30" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="169" t="s">
+      <c r="B30" s="168" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="66" t="s">
@@ -4043,7 +4043,7 @@
       <c r="AJ30" s="36"/>
     </row>
     <row r="31" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="168"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="59" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4114,7 @@
       <c r="AJ31" s="36"/>
     </row>
     <row r="32" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="169" t="s">
+      <c r="B32" s="168" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="66" t="s">
@@ -4184,7 +4184,7 @@
       <c r="AJ32" s="36"/>
     </row>
     <row r="33" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="168"/>
+      <c r="B33" s="169"/>
       <c r="C33" s="59" t="s">
         <v>25</v>
       </c>
@@ -4352,11 +4352,11 @@
       <c r="B37" s="64"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="173" t="s">
+      <c r="E37" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
       <c r="H37" s="135"/>
       <c r="I37" s="170" t="s">
         <v>60</v>
@@ -4557,7 +4557,7 @@
       <c r="AJ39" s="36"/>
     </row>
     <row r="40" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="169" t="s">
+      <c r="B40" s="168" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="66" t="s">
@@ -4631,7 +4631,7 @@
       <c r="AJ40" s="36"/>
     </row>
     <row r="41" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="168"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="59" t="s">
         <v>25</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="AJ41" s="36"/>
     </row>
     <row r="42" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="169" t="s">
+      <c r="B42" s="168" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -4785,7 +4785,7 @@
       <c r="AJ42" s="36"/>
     </row>
     <row r="43" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="167"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="AJ43" s="36"/>
     </row>
     <row r="44" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="168"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="50" t="s">
         <v>25</v>
       </c>
@@ -4947,7 +4947,7 @@
       <c r="AJ44" s="36"/>
     </row>
     <row r="45" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="167" t="s">
+      <c r="B45" s="173" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -5031,7 +5031,7 @@
       <c r="AJ45" s="36"/>
     </row>
     <row r="46" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="168"/>
+      <c r="B46" s="169"/>
       <c r="C46" s="50" t="s">
         <v>25</v>
       </c>
@@ -5332,7 +5332,7 @@
       </c>
     </row>
     <row r="52" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="169" t="s">
+      <c r="B52" s="168" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5428,7 +5428,7 @@
       <c r="AJ52" s="36"/>
     </row>
     <row r="53" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="167"/>
+      <c r="B53" s="173"/>
       <c r="C53" s="14" t="s">
         <v>25</v>
       </c>
@@ -5532,7 +5532,7 @@
       <c r="AJ53" s="36"/>
     </row>
     <row r="54" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="167"/>
+      <c r="B54" s="173"/>
       <c r="C54" s="14" t="s">
         <v>25</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="AJ54" s="36"/>
     </row>
     <row r="55" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="167"/>
+      <c r="B55" s="173"/>
       <c r="C55" s="14" t="s">
         <v>25</v>
       </c>
@@ -5728,7 +5728,7 @@
       <c r="AJ55" s="36"/>
     </row>
     <row r="56" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="168"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="14" t="s">
         <v>25</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="AM56" s="37"/>
     </row>
     <row r="57" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="169" t="s">
+      <c r="B57" s="168" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="66" t="s">
@@ -5925,7 +5925,7 @@
       <c r="AJ57" s="36"/>
     </row>
     <row r="58" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="168"/>
+      <c r="B58" s="169"/>
       <c r="C58" s="59" t="s">
         <v>25</v>
       </c>
@@ -6023,7 +6023,7 @@
       <c r="AJ58" s="36"/>
     </row>
     <row r="59" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="167" t="s">
+      <c r="B59" s="173" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="57" t="s">
@@ -6111,7 +6111,7 @@
       </c>
     </row>
     <row r="60" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="167"/>
+      <c r="B60" s="173"/>
       <c r="C60" s="14" t="s">
         <v>80</v>
       </c>
@@ -6207,7 +6207,7 @@
       </c>
     </row>
     <row r="61" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="168"/>
+      <c r="B61" s="169"/>
       <c r="C61" s="59" t="s">
         <v>80</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="62" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="169" t="s">
+      <c r="B62" s="168" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="66" t="s">
@@ -6391,7 +6391,7 @@
       </c>
     </row>
     <row r="63" spans="2:39" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="167"/>
+      <c r="B63" s="173"/>
       <c r="C63" s="14" t="s">
         <v>80</v>
       </c>
@@ -6487,7 +6487,7 @@
       </c>
     </row>
     <row r="64" spans="2:39" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="168"/>
+      <c r="B64" s="169"/>
       <c r="C64" s="59" t="s">
         <v>80</v>
       </c>
@@ -6583,7 +6583,7 @@
       </c>
     </row>
     <row r="65" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="167" t="s">
+      <c r="B65" s="173" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="57" t="s">
@@ -6671,7 +6671,7 @@
       </c>
     </row>
     <row r="66" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="167"/>
+      <c r="B66" s="173"/>
       <c r="C66" s="30" t="s">
         <v>80</v>
       </c>
@@ -6767,7 +6767,7 @@
       </c>
     </row>
     <row r="67" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="168"/>
+      <c r="B67" s="169"/>
       <c r="C67" s="50" t="s">
         <v>80</v>
       </c>
@@ -6863,7 +6863,7 @@
       </c>
     </row>
     <row r="68" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="169" t="s">
+      <c r="B68" s="168" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -6959,7 +6959,7 @@
       </c>
     </row>
     <row r="69" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="167"/>
+      <c r="B69" s="173"/>
       <c r="C69" s="50" t="s">
         <v>25</v>
       </c>
@@ -7063,7 +7063,7 @@
       </c>
     </row>
     <row r="70" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="169" t="s">
+      <c r="B70" s="168" t="s">
         <v>47</v>
       </c>
       <c r="C70" s="66" t="s">
@@ -7151,7 +7151,7 @@
       </c>
     </row>
     <row r="71" spans="2:36" ht="42.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="168"/>
+      <c r="B71" s="169"/>
       <c r="C71" s="59" t="s">
         <v>25</v>
       </c>
@@ -7171,9 +7171,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="I71" s="78">
-        <v>1</v>
-      </c>
+      <c r="I71" s="78"/>
       <c r="J71" s="72">
         <f t="shared" ref="J71:K71" si="68">J70</f>
         <v>95</v>
@@ -7184,11 +7182,9 @@
       </c>
       <c r="L71" s="116">
         <f t="shared" si="50"/>
-        <v>95</v>
-      </c>
-      <c r="M71" s="78">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M71" s="78"/>
       <c r="N71" s="72">
         <f t="shared" ref="N71:O71" si="69">N70</f>
         <v>95</v>
@@ -7199,11 +7195,9 @@
       </c>
       <c r="P71" s="52">
         <f t="shared" si="51"/>
-        <v>95</v>
-      </c>
-      <c r="Q71" s="78">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="78"/>
       <c r="R71" s="72">
         <f t="shared" ref="R71:S71" si="70">R70</f>
         <v>95</v>
@@ -7214,11 +7208,9 @@
       </c>
       <c r="T71" s="116">
         <f t="shared" si="52"/>
-        <v>95</v>
-      </c>
-      <c r="U71" s="78">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U71" s="78"/>
       <c r="V71" s="72">
         <f t="shared" ref="V71:W71" si="71">V70</f>
         <v>95</v>
@@ -7229,7 +7221,7 @@
       </c>
       <c r="X71" s="116">
         <f t="shared" si="53"/>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="60"/>
       <c r="Z71" s="61"/>
@@ -7247,11 +7239,11 @@
       </c>
       <c r="AG71" s="55">
         <f>SUM(E71,I71,M71,Q71,U71,Y71,AC71)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH71" s="56">
         <f>SUM(H71,L71,P71,T71,X71,AB71,AF71)</f>
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:36" s="105" customFormat="1" ht="42.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7260,11 +7252,11 @@
       <c r="D72" s="106"/>
       <c r="AG72" s="110">
         <f>SUM(AG52:AG71)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AH72" s="110">
         <f>SUM(AH52:AH71)</f>
-        <v>1379.7</v>
+        <v>999.7</v>
       </c>
       <c r="AI72" s="109"/>
       <c r="AJ72" s="109"/>
@@ -7305,16 +7297,16 @@
       <c r="AF73" s="84"/>
       <c r="AG73" s="92">
         <f>SUM(AG22,AG34,AG47,AG72)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AH73" s="23">
         <f>SUM(AH22,AH34,AH47,AH72)</f>
-        <v>1884.5</v>
+        <v>1504.5</v>
       </c>
     </row>
     <row r="74" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="190" t="s">
+      <c r="B75" s="167" t="s">
         <v>89</v>
       </c>
       <c r="C75" s="14"/>
@@ -7394,7 +7386,7 @@
     <row r="76" spans="2:36" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH76" s="18">
         <f>AH73+AH75</f>
-        <v>1898.48</v>
+        <v>1518.48</v>
       </c>
     </row>
     <row r="77" spans="2:36" ht="42.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7403,27 +7395,30 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="G6:N6"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AC50:AE50"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="U50:W50"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="E6:F6"/>
@@ -7440,30 +7435,27 @@
     <mergeCell ref="G1:N1"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="S3:Z3"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="AC50:AE50"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="U50:W50"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G6:N6"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
